--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460443E1-F976-644B-BA02-576B72114895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D030030-5114-9B4E-87B0-50BA3AB550E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10380" windowWidth="35800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="10380" windowWidth="35800" windowHeight="16580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>BC: PE 1, BC: PE 2, BC: Weight, BC: Height</t>
+  </si>
+  <si>
+    <t>line|city|district|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>organisationAddress</t>
   </si>
 </sst>
 </file>
@@ -359,15 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -379,6 +376,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -389,7 +389,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,30 +725,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -753,49 +759,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD730DE0-C074-8B4F-8463-AF26984F71A7}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>56</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -817,140 +830,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -963,7 +976,7 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -981,52 +994,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17">
         <v>2</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17">
         <v>3</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1041,26 +1054,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1075,26 +1088,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1109,26 +1122,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="10"/>
+      <c r="E5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19"/>
       <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1143,8 +1156,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1183,8 +1196,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1223,8 +1236,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1381,7 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="1" t="s">

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D030030-5114-9B4E-87B0-50BA3AB550E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A22B9-FE65-554E-9248-CB72A67C0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10380" windowWidth="35800" windowHeight="16580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="42580" yWindow="6640" windowWidth="35800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -173,12 +173,6 @@
     <t>studyPhase</t>
   </si>
   <si>
-    <t>C98388=Interventional Study</t>
-  </si>
-  <si>
-    <t>C15602=Phase III Trial</t>
-  </si>
-  <si>
     <t>Cycles Tests</t>
   </si>
   <si>
@@ -270,6 +264,12 @@
   </si>
   <si>
     <t>organisationAddress</t>
+  </si>
+  <si>
+    <t>C98388</t>
+  </si>
+  <si>
+    <t>C15602</t>
   </si>
 </sst>
 </file>
@@ -379,14 +379,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,16 +740,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD730DE0-C074-8B4F-8463-AF26984F71A7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -773,42 +773,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -831,69 +831,69 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -905,41 +905,41 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A22B9-FE65-554E-9248-CB72A67C0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293A08A7-AD36-A240-8F5A-06437412D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42580" yWindow="6640" windowWidth="35800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="42580" yWindow="6640" windowWidth="35800" windowHeight="16580" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
     <sheet name="soa" sheetId="1" r:id="rId4"/>
+    <sheet name="indications_interventions" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -270,6 +271,39 @@
   </si>
   <si>
     <t>C15602</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>codes</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>An indication</t>
+  </si>
+  <si>
+    <t>SNOMED:12345=Indication1</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>An intervention</t>
+  </si>
+  <si>
+    <t>ICD-10: X = Y, SNOMED: A=B</t>
+  </si>
+  <si>
+    <t>SNOMED:345678=Indication2</t>
+  </si>
+  <si>
+    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
 </sst>
 </file>
@@ -342,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -379,6 +413,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -713,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -833,67 +869,67 @@
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -994,52 +1030,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
         <v>2</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19">
         <v>3</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1054,26 +1090,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1088,26 +1124,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1122,26 +1158,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="19"/>
+      <c r="E5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1156,8 +1192,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1196,8 +1232,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1236,8 +1272,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1438,4 +1474,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAD8777-8987-924C-9761-6675C8DC06D1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293A08A7-AD36-A240-8F5A-06437412D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15BB01D-BF01-F044-94B8-84B9B85503C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42580" yWindow="6640" windowWidth="35800" windowHeight="16580" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
     <sheet name="soa" sheetId="1" r:id="rId4"/>
     <sheet name="indications_interventions" sheetId="5" r:id="rId5"/>
+    <sheet name="studyDesignPopulation" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -304,6 +305,51 @@
   </si>
   <si>
     <t>ICD-10: DD=CC, SNOMED: A=B</t>
+  </si>
+  <si>
+    <t>populationDescription</t>
+  </si>
+  <si>
+    <t>plannedNumberOfParticipants</t>
+  </si>
+  <si>
+    <t>plannedMinimumAgeOfParticipants</t>
+  </si>
+  <si>
+    <t>plannedMaximumAgeOfParticipants</t>
+  </si>
+  <si>
+    <t>plannedSexOfParticipants</t>
+  </si>
+  <si>
+    <t>Pop 1</t>
+  </si>
+  <si>
+    <t>18 years</t>
+  </si>
+  <si>
+    <t>40 years</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>Pop 2</t>
+  </si>
+  <si>
+    <t>60 years</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Pop 3</t>
+  </si>
+  <si>
+    <t>70 years</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAD8777-8987-924C-9761-6675C8DC06D1}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1548,4 +1594,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF479F8C-1E70-3F42-8111-5149A1D657BC}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15BB01D-BF01-F044-94B8-84B9B85503C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FE2BD7-FE49-234D-BC1E-F818C19F95EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
     <sheet name="soa" sheetId="1" r:id="rId4"/>
-    <sheet name="indications_interventions" sheetId="5" r:id="rId5"/>
-    <sheet name="studyDesignPopulation" sheetId="6" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
+    <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FE2BD7-FE49-234D-BC1E-F818C19F95EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4C790B-8398-E545-B1B0-7780551DB53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="soa" sheetId="1" r:id="rId4"/>
     <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
+    <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -350,6 +351,33 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>objectiveDescription</t>
+  </si>
+  <si>
+    <t>objectiveLevel</t>
+  </si>
+  <si>
+    <t>endpointDescription</t>
+  </si>
+  <si>
+    <t>endpointPurposeDescription</t>
+  </si>
+  <si>
+    <t>endpointLevel</t>
+  </si>
+  <si>
+    <t>Obj Desc</t>
+  </si>
+  <si>
+    <t>Study Primary Objective</t>
+  </si>
+  <si>
+    <t>End Desc</t>
+  </si>
+  <si>
+    <t>Primary Endpoint</t>
   </si>
 </sst>
 </file>
@@ -422,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -478,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF479F8C-1E70-3F42-8111-5149A1D657BC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1684,4 +1715,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="34.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4C790B-8398-E545-B1B0-7780551DB53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8E6B9-41DB-A944-8989-DAE9FF7461AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -378,13 +379,73 @@
   </si>
   <si>
     <t>Primary Endpoint</t>
+  </si>
+  <si>
+    <t>xref</t>
+  </si>
+  <si>
+    <t>summaryMeasure</t>
+  </si>
+  <si>
+    <t>intercurrentEventName</t>
+  </si>
+  <si>
+    <t>intercurrentEventDescription</t>
+  </si>
+  <si>
+    <t>intercurrentEventStrategy</t>
+  </si>
+  <si>
+    <t>treatmentXref</t>
+  </si>
+  <si>
+    <t>endpointXref</t>
+  </si>
+  <si>
+    <t>EST1</t>
+  </si>
+  <si>
+    <t>Survival of all patients</t>
+  </si>
+  <si>
+    <t>ITT</t>
+  </si>
+  <si>
+    <t>termination</t>
+  </si>
+  <si>
+    <t>IC Event Description</t>
+  </si>
+  <si>
+    <t>Patients with out of range lab values before dosing will be excluded</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>END1</t>
+  </si>
+  <si>
+    <t>IND1</t>
+  </si>
+  <si>
+    <t>IND2</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>objectiveXref</t>
+  </si>
+  <si>
+    <t>OBJ1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,6 +484,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -450,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -489,6 +558,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -507,8 +583,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,67 +1022,67 @@
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -1107,52 +1183,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="22">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22">
         <v>2</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22">
         <v>3</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1167,26 +1243,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1201,26 +1277,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1235,26 +1311,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="21"/>
+      <c r="E5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="24"/>
       <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1269,8 +1345,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1309,8 +1385,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1349,8 +1425,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1555,70 +1631,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAD8777-8987-924C-9761-6675C8DC06D1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1719,46 +1810,134 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="7" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62082F24-2285-8041-915D-AB36C0D2CF6F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8E6B9-41DB-A944-8989-DAE9FF7461AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCBE087-8F4D-004B-8624-28300D1D8388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -177,9 +177,6 @@
     <t>studyPhase</t>
   </si>
   <si>
-    <t>Cycles Tests</t>
-  </si>
-  <si>
     <t>organisationIdentifierScheme</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>organisationAddress</t>
   </si>
   <si>
-    <t>C98388</t>
-  </si>
-  <si>
     <t>C15602</t>
   </si>
   <si>
@@ -439,6 +433,27 @@
   </si>
   <si>
     <t>OBJ1</t>
+  </si>
+  <si>
+    <t>Simple Test 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Interventional Study</t>
+  </si>
+  <si>
+    <t>studyAcronym</t>
+  </si>
+  <si>
+    <t>SIMPLE</t>
+  </si>
+  <si>
+    <t>studyRationale</t>
+  </si>
+  <si>
+    <t>A simple test</t>
   </si>
 </sst>
 </file>
@@ -565,6 +580,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -582,9 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,32 +928,52 @@
     <col min="3" max="4" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>76</v>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -962,42 +997,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1020,69 +1055,69 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -1094,41 +1129,41 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1183,52 +1218,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="23">
         <v>1</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23">
         <v>2</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23">
         <v>3</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1243,26 +1278,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1277,26 +1312,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1311,26 +1346,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1345,8 +1380,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1385,8 +1420,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1425,8 +1460,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1571,7 +1606,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1645,72 +1680,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1737,70 +1772,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1812,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1824,45 +1859,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1890,54 +1925,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>121</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>124</v>
-      </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCBE087-8F4D-004B-8624-28300D1D8388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFD4384-3D39-A448-A458-26C0304CE61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="152">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -454,6 +454,51 @@
   </si>
   <si>
     <t>A simple test</t>
+  </si>
+  <si>
+    <t>briefTitle</t>
+  </si>
+  <si>
+    <t>officialTitle</t>
+  </si>
+  <si>
+    <t>publicTitle</t>
+  </si>
+  <si>
+    <t>scientificTitle</t>
+  </si>
+  <si>
+    <t>protocolVersion</t>
+  </si>
+  <si>
+    <t>protocolAmendment</t>
+  </si>
+  <si>
+    <t>protocolEffectiveDate</t>
+  </si>
+  <si>
+    <t>protocolStatus</t>
+  </si>
+  <si>
+    <t>Something Brief</t>
+  </si>
+  <si>
+    <t>Something Very Official</t>
+  </si>
+  <si>
+    <t>Something Public</t>
+  </si>
+  <si>
+    <t>Somethign Clever</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Somethign Clever But New</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -534,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -599,6 +644,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -915,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A8" sqref="A8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,7 +982,7 @@
     <col min="3" max="4" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
@@ -936,7 +990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>41</v>
       </c>
@@ -944,7 +998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>42</v>
       </c>
@@ -952,7 +1006,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>43</v>
       </c>
@@ -960,7 +1014,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>133</v>
       </c>
@@ -968,12 +1022,88 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="28">
+        <v>40179</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="28">
+        <v>40544</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFD4384-3D39-A448-A458-26C0304CE61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5C420D-5E5A-7345-A18E-AC727D9E23C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -499,6 +499,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>businessTherapeuticAreas</t>
+  </si>
+  <si>
+    <t>SPONSOR: VAC=Vacines Group</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -628,6 +634,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -646,14 +661,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,17 +978,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1030,54 +1040,38 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E9" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G9" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H9" s="21" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="28">
-        <v>40179</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,18 +1085,42 @@
         <v>147</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="22">
+        <v>40179</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G11" s="22">
         <v>40544</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1187,67 +1205,67 @@
       <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -1348,52 +1366,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>2</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1408,26 +1426,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,26 +1460,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,26 +1494,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="28"/>
       <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1510,8 +1528,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1550,8 +1568,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1590,8 +1608,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5C420D-5E5A-7345-A18E-AC727D9E23C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42854E2-0309-8E4E-93E4-35565A687FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -222,27 +222,15 @@
     <t>studyDesignBlindingScheme</t>
   </si>
   <si>
-    <t>C49659=OPEN LABEL</t>
-  </si>
-  <si>
     <t>trialIntentTypes</t>
   </si>
   <si>
-    <t>C15714=BASIC SCIENCE, C139174=DEVICE FEASIBILITY</t>
-  </si>
-  <si>
     <t>trialTypes</t>
   </si>
   <si>
-    <t>C12345=Observational</t>
-  </si>
-  <si>
     <t>interventionModel</t>
   </si>
   <si>
-    <t>C12346=None</t>
-  </si>
-  <si>
     <t xml:space="preserve">Screening </t>
   </si>
   <si>
@@ -505,6 +493,18 @@
   </si>
   <si>
     <t>SPONSOR: VAC=Vacines Group</t>
+  </si>
+  <si>
+    <t>OPEN LABEL</t>
+  </si>
+  <si>
+    <t>BASIC SCIENCE,    DEVICE FEASIBILITY</t>
+  </si>
+  <si>
+    <t>Efficacy Study</t>
+  </si>
+  <si>
+    <t>C82639</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -585,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -610,9 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,8 +624,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -643,14 +640,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -661,8 +652,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -993,135 +990,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="C9" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D9" s="19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="21" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="22">
+        <v>147</v>
+      </c>
+      <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1157,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1180,7 +1177,7 @@
         <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1192,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,70 +1199,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B5" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -1276,57 +1273,57 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>69</v>
+      <c r="B10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1366,52 +1363,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="23">
         <v>1</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23">
         <v>2</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1426,26 +1423,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1460,26 +1457,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1494,26 +1491,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="28"/>
+      <c r="E5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1528,8 +1525,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1565,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1608,8 +1605,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1753,8 +1750,8 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>71</v>
+      <c r="C12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1827,73 +1824,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>77</v>
+      <c r="A1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1919,71 +1916,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2006,46 +2003,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="D2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2072,55 +2069,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42854E2-0309-8E4E-93E4-35565A687FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EBC97-20BA-264A-B96E-C9E977147E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
     <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
+    <sheet name="configuration" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="157">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -505,6 +506,15 @@
   </si>
   <si>
     <t>C82639</t>
+  </si>
+  <si>
+    <t>CT Version</t>
+  </si>
+  <si>
+    <t>SNOMED=January 31, 2018</t>
+  </si>
+  <si>
+    <t>SPONSOR =   12</t>
   </si>
 </sst>
 </file>
@@ -644,6 +654,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -651,15 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
@@ -1202,67 +1212,67 @@
       <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -1363,52 +1373,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>2</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1423,26 +1433,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1457,26 +1467,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,26 +1501,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="28"/>
       <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1525,8 +1535,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1575,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1605,8 +1615,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2123,4 +2133,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EBC97-20BA-264A-B96E-C9E977147E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C43D5A-6777-5747-AAE9-772E84BD6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>ClinicalTrials.gov</t>
   </si>
   <si>
-    <t>Registry</t>
-  </si>
-  <si>
     <t>NCT12345678</t>
   </si>
   <si>
@@ -515,6 +512,9 @@
   </si>
   <si>
     <t>SPONSOR =   12</t>
+  </si>
+  <si>
+    <t>Study Registry</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1028,71 +1028,71 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
         <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1102,33 +1102,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD730DE0-C074-8B4F-8463-AF26984F71A7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1180,14 +1180,14 @@
       <c r="C2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1210,10 +1210,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1284,41 +1284,41 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1835,72 +1835,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1927,70 +1927,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
         <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2014,45 +2014,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2080,54 +2080,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>114</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2150,18 +2150,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C43D5A-6777-5747-AAE9-772E84BD6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEFCA9-01FA-FD42-A8CB-B8F0D0F15D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>Study Registry</t>
+  </si>
+  <si>
+    <t>Cycle 12</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD730DE0-C074-8B4F-8463-AF26984F71A7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1355,8 +1358,8 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1370,8 @@
     <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
     <col min="5" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
     <col min="13" max="17" width="10.83203125" style="1"/>
   </cols>
@@ -1522,7 +1526,7 @@
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>25</v>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEFCA9-01FA-FD42-A8CB-B8F0D0F15D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A68F2B-769C-CC4B-A3AA-0CF1408A89AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>therapeuticAreas</t>
   </si>
   <si>
-    <t>Not supported yet</t>
-  </si>
-  <si>
     <t>studyDesignRationale</t>
   </si>
   <si>
@@ -518,13 +515,16 @@
   </si>
   <si>
     <t>Cycle 12</t>
+  </si>
+  <si>
+    <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,14 +563,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -659,9 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -673,6 +662,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,7 +999,7 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1015,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1023,7 +1015,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1031,71 +1023,71 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
         <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
         <v>130</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1105,33 +1097,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1162,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,13 +1176,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1200,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,127 +1203,129 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1341,11 +1335,11 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1358,7 +1352,7 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1377,52 +1371,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25">
         <v>2</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1437,26 +1431,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1471,26 +1465,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,28 +1499,28 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="28"/>
+      <c r="E5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="27"/>
       <c r="K5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>25</v>
@@ -1539,8 +1533,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1579,8 +1573,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1619,8 +1613,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1765,7 +1759,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1839,72 +1833,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1931,70 +1925,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" t="s">
         <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2018,45 +2012,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2084,54 +2078,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>116</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2154,18 +2148,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A68F2B-769C-CC4B-A3AA-0CF1408A89AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC06B1A-24B3-244E-8510-93CCFC5D6546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="7740" windowWidth="35800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="29800" yWindow="6520" windowWidth="35800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="soa" sheetId="1" r:id="rId4"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
     <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
+  </si>
+  <si>
+    <t>mainTimeline</t>
+  </si>
+  <si>
+    <t>otherTimelines</t>
   </si>
 </sst>
 </file>
@@ -655,6 +661,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -662,9 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,14 +1213,14 @@
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -1272,74 +1278,96 @@
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1352,8 +1380,8 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1371,52 +1399,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>2</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>3</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1431,26 +1459,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1465,26 +1493,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1499,26 +1527,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="27"/>
+      <c r="E5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="28"/>
       <c r="K5" s="2" t="s">
         <v>156</v>
       </c>
@@ -1533,8 +1561,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1573,8 +1601,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1613,8 +1641,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC06B1A-24B3-244E-8510-93CCFC5D6546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B367BC-010F-6A41-ABF4-F1DA1EFF998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29800" yWindow="6520" windowWidth="35800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="29800" yWindow="6520" windowWidth="35800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="165">
   <si>
     <t>Epoch</t>
   </si>
@@ -524,6 +521,24 @@
   </si>
   <si>
     <t>otherTimelines</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Main Timeline</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This is the main timeline for the study design.</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Potential subject identified</t>
   </si>
 </sst>
 </file>
@@ -596,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -655,22 +670,31 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,98 +1026,98 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
         <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1103,33 +1127,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1153,42 +1177,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1200,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,91 +1235,91 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+        <v>157</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -1307,41 +1331,41 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1380,8 +1404,8 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,18 +1423,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -1421,17 +1447,21 @@
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -1446,390 +1476,393 @@
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>164</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="6" t="s">
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:B8"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="E3:F3"/>
@@ -1861,72 +1894,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1953,70 +1986,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
         <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2040,45 +2073,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2106,54 +2139,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>113</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>115</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>116</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2176,18 +2209,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B367BC-010F-6A41-ABF4-F1DA1EFF998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EEF66E-5146-924A-88E8-E6B4622BBEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29800" yWindow="6520" windowWidth="35800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="29800" yWindow="6520" windowWidth="35800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -415,9 +415,6 @@
     <t>OBJ1</t>
   </si>
   <si>
-    <t>Simple Test 1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -427,15 +424,9 @@
     <t>studyAcronym</t>
   </si>
   <si>
-    <t>SIMPLE</t>
-  </si>
-  <si>
     <t>studyRationale</t>
   </si>
   <si>
-    <t>A simple test</t>
-  </si>
-  <si>
     <t>briefTitle</t>
   </si>
   <si>
@@ -539,6 +530,15 @@
   </si>
   <si>
     <t>Potential subject identified</t>
+  </si>
+  <si>
+    <t>Cycles Test 1</t>
+  </si>
+  <si>
+    <t>CYCLES 1</t>
+  </si>
+  <si>
+    <t>A cycles test</t>
   </si>
 </sst>
 </file>
@@ -669,6 +669,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -683,18 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1058,66 +1058,66 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1127,33 +1127,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1206,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>51</v>
@@ -1224,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1237,89 +1237,89 @@
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+        <v>154</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+        <v>155</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -1423,11 +1423,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>160</v>
+      <c r="A1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1435,27 +1435,27 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>162</v>
+      <c r="A2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -1463,18 +1463,18 @@
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="30">
         <v>1</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30">
         <v>2</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1489,11 +1489,11 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>164</v>
+      <c r="A3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>30</v>
@@ -1501,18 +1501,18 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1527,26 +1527,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1561,28 +1561,28 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="27"/>
+      <c r="E5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="31"/>
       <c r="K5" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>24</v>
@@ -1595,8 +1595,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1635,8 +1635,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1675,8 +1675,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1859,6 +1859,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="G2:H2"/>
@@ -1869,9 +1872,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2209,18 +2209,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EEF66E-5146-924A-88E8-E6B4622BBEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63DCD67-CE47-0B4A-9158-DC3D6AC1EFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29800" yWindow="6520" windowWidth="35800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
     <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
-    <sheet name="configuration" sheetId="10" r:id="rId9"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
+    <sheet name="configuration" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
   <si>
     <t>Epoch</t>
   </si>
@@ -539,6 +540,39 @@
   </si>
   <si>
     <t>A cycles test</t>
+  </si>
+  <si>
+    <t>procedureType</t>
+  </si>
+  <si>
+    <t>procedureCode</t>
+  </si>
+  <si>
+    <t>procedureIsConditional</t>
+  </si>
+  <si>
+    <t>procedureIsConditionalReason</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>SNOMED: 12345678=Test</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>SNOMED: 12345679=Test</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Only do it they have man flu</t>
   </si>
 </sst>
 </file>
@@ -611,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -690,11 +724,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1154,6 +1197,40 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1435,17 +1512,17 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1463,18 +1540,18 @@
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="31">
         <v>1</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31">
         <v>2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31">
         <v>3</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1501,18 +1578,18 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1535,18 +1612,18 @@
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,18 +1646,18 @@
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="31"/>
+      <c r="E5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="30"/>
       <c r="K5" s="2" t="s">
         <v>152</v>
       </c>
@@ -2195,33 +2272,70 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63AE636-BC2E-EA44-A618-002BB58724B6}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24" style="34" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63DCD67-CE47-0B4A-9158-DC3D6AC1EFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A8E21-A165-9748-90F6-CE312FECE3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43740" yWindow="2500" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>studyDesignRationale</t>
   </si>
   <si>
-    <t>"Study design rationale put here"</t>
-  </si>
-  <si>
     <t>studyDesignBlindingScheme</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>Only do it they have man flu</t>
+  </si>
+  <si>
+    <t>Multiple cycles test</t>
   </si>
 </sst>
 </file>
@@ -715,6 +715,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -729,15 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,7 +1072,7 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1080,7 +1080,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1088,7 +1088,7 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1096,71 +1096,71 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1170,33 +1170,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1219,18 +1219,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1269,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1283,13 +1283,13 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,89 +1314,89 @@
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+        <v>153</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+        <v>154</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -1408,41 +1408,41 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1501,10 +1501,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>157</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1512,27 +1512,27 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>159</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -1540,18 +1540,18 @@
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="34">
         <v>1</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34">
         <v>2</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>30</v>
@@ -1578,18 +1578,18 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1612,18 +1612,18 @@
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="31"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1646,20 +1646,20 @@
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="30"/>
+      <c r="E5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="33"/>
       <c r="K5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>24</v>
@@ -1898,7 +1898,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -1971,72 +1971,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2063,70 +2063,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
         <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
         <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2150,45 +2150,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2216,54 +2216,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>114</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>115</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63AE636-BC2E-EA44-A618-002BB58724B6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2284,54 +2284,54 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="34" customWidth="1"/>
+    <col min="4" max="4" width="24" style="29" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" t="s">
         <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A8E21-A165-9748-90F6-CE312FECE3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A154126-EE22-104D-940E-3A211D250763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="2500" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43740" yWindow="2500" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
     <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
     <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
-    <sheet name="configuration" sheetId="10" r:id="rId10"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
+    <sheet name="configuration" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
   <si>
     <t>Epoch</t>
   </si>
@@ -65,9 +66,6 @@
     <t>Cycle End Rule</t>
   </si>
   <si>
-    <t>Visit Label</t>
-  </si>
-  <si>
     <t>Day 1</t>
   </si>
   <si>
@@ -83,9 +81,6 @@
     <t>EOT Visit</t>
   </si>
   <si>
-    <t>Visit Window</t>
-  </si>
-  <si>
     <t>-2..2 Days</t>
   </si>
   <si>
@@ -161,9 +156,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>BC/Profile</t>
-  </si>
-  <si>
     <t>studyTitle</t>
   </si>
   <si>
@@ -573,13 +565,136 @@
   </si>
   <si>
     <t>Multiple cycles test</t>
+  </si>
+  <si>
+    <t>encounterName</t>
+  </si>
+  <si>
+    <t>encounterDescription</t>
+  </si>
+  <si>
+    <t>encounterType</t>
+  </si>
+  <si>
+    <t>encounterEnvironmentalSetting</t>
+  </si>
+  <si>
+    <t>encounterContactModes</t>
+  </si>
+  <si>
+    <t>transitionStartRule</t>
+  </si>
+  <si>
+    <t>transitionEndRule</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Screening encounter</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>CLINIC</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>Subject identifier</t>
+  </si>
+  <si>
+    <t>IEs passed</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Radomized</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>TELEPHONE CALL</t>
+  </si>
+  <si>
+    <t>Encounter xref</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>BC/Procedure/Timeline</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>Cycle 1, Day 1</t>
+  </si>
+  <si>
+    <t>Cycle 1, Day 15</t>
+  </si>
+  <si>
+    <t>Cycle 2, Day 1</t>
+  </si>
+  <si>
+    <t>Cycle 2, Day 15</t>
+  </si>
+  <si>
+    <t>Cycle 3, Day 1</t>
+  </si>
+  <si>
+    <t>Cycle 3, Day 15</t>
+  </si>
+  <si>
+    <t>Cycle 4 to 12, Day 1</t>
+  </si>
+  <si>
+    <t>Cycle 13 onwards, Day 15</t>
+  </si>
+  <si>
+    <t>End of Treatment Visit</t>
+  </si>
+  <si>
+    <t>Follow Up Visit</t>
+  </si>
+  <si>
+    <t>End of treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -618,6 +733,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -645,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -658,9 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -703,17 +821,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -738,6 +847,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,135 +1181,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="20" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="21">
+        <v>137</v>
+      </c>
+      <c r="G11" s="20">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1205,6 +1318,288 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154CB4E-EAA7-494D-AF71-EA9F1872735B}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1218,19 +1613,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>147</v>
+      <c r="A1" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>147</v>
+      <c r="A2" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1253,43 +1648,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>64</v>
+      <c r="F2" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
@@ -1311,153 +1706,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B5" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>61</v>
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1481,15 +1876,15 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
     <col min="5" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
@@ -1500,438 +1895,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="34">
+        <v>35</v>
+      </c>
+      <c r="E2" s="30">
         <v>1</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30">
         <v>2</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30">
         <v>3</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>187</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>190</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>197</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="6" t="s">
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1950,6 +2345,7 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1970,73 +2366,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>69</v>
+      <c r="A1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2062,71 +2458,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2149,46 +2545,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="D2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2215,55 +2611,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2284,58 +2680,58 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="29" customWidth="1"/>
+    <col min="4" max="4" width="24" style="25" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>164</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A154126-EE22-104D-940E-3A211D250763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0336D46-56D2-8A47-A37E-92B459CF6302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="2500" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43740" yWindow="2500" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
     <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
     <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
-    <sheet name="configuration" sheetId="10" r:id="rId11"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId11"/>
+    <sheet name="configuration" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="227">
   <si>
     <t>Epoch</t>
   </si>
@@ -222,9 +223,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>cell</t>
-  </si>
-  <si>
     <t>Placebo</t>
   </si>
   <si>
@@ -688,6 +686,48 @@
   </si>
   <si>
     <t>End of treatment</t>
+  </si>
+  <si>
+    <t>studyElementName</t>
+  </si>
+  <si>
+    <t>studyElementDescription</t>
+  </si>
+  <si>
+    <t>EL1</t>
+  </si>
+  <si>
+    <t>Screening Element</t>
+  </si>
+  <si>
+    <t>Study Start</t>
+  </si>
+  <si>
+    <t>Screened</t>
+  </si>
+  <si>
+    <t>EL2</t>
+  </si>
+  <si>
+    <t>EL3</t>
+  </si>
+  <si>
+    <t>Follow Up</t>
+  </si>
+  <si>
+    <t>Follow Up Element</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Leave Study</t>
+  </si>
+  <si>
+    <t>Treatment Element</t>
+  </si>
+  <si>
+    <t>Completed treatment</t>
   </si>
 </sst>
 </file>
@@ -833,6 +873,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -847,10 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,7 +1225,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1193,7 +1233,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1201,7 +1241,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,71 +1249,71 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1283,33 +1323,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="D11" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="20">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1336,261 +1376,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="27" t="s">
         <v>178</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1600,6 +1640,95 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020DE536-FA14-3149-8856-3933D89EC48F}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1614,18 +1743,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1793,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1678,13 +1807,13 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1696,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1709,89 +1838,89 @@
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+        <v>149</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+        <v>150</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -1817,27 +1946,27 @@
         <v>57</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1876,7 +2005,7 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1896,10 +2025,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>0</v>
@@ -1907,27 +2036,27 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>155</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>3</v>
@@ -1935,18 +2064,18 @@
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="32">
         <v>1</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32">
         <v>2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32">
         <v>3</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1962,10 +2091,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -1973,18 +2102,18 @@
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2007,18 +2136,18 @@
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2041,20 +2170,20 @@
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="29"/>
+      <c r="E5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="31"/>
       <c r="K5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>22</v>
@@ -2110,47 +2239,47 @@
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -2187,14 +2316,14 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>196</v>
+      <c r="C9" s="27" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2293,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -2367,72 +2496,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2459,70 +2588,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2546,45 +2675,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2612,54 +2741,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>110</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>112</v>
-      </c>
-      <c r="H2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2687,47 +2816,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>166</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" t="s">
         <v>170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0336D46-56D2-8A47-A37E-92B459CF6302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F713249-7440-2544-B38D-496EFE4063AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="2500" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31140" yWindow="7000" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="232">
   <si>
     <t>Epoch</t>
   </si>
@@ -728,6 +728,21 @@
   </si>
   <si>
     <t>Completed treatment</t>
+  </si>
+  <si>
+    <t>studyDesignName</t>
+  </si>
+  <si>
+    <t>studyDesignDescription</t>
+  </si>
+  <si>
+    <t>Epoch/Arms</t>
+  </si>
+  <si>
+    <t>Study Design 1</t>
+  </si>
+  <si>
+    <t>The main design for the study</t>
   </si>
 </sst>
 </file>
@@ -820,9 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -878,9 +890,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -891,6 +900,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,7 +1236,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
@@ -1229,15 +1244,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
@@ -1245,7 +1260,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
@@ -1253,7 +1268,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B5" t="s">
@@ -1261,7 +1276,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B6" t="s">
@@ -1269,57 +1284,57 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>133</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1327,16 +1342,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>135</v>
       </c>
       <c r="E11" s="1">
@@ -1345,7 +1360,7 @@
       <c r="F11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1376,28 +1391,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1656,19 +1671,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1742,7 +1757,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B1" t="s">
@@ -1750,7 +1765,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B2" t="s">
@@ -1777,42 +1792,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1823,176 +1838,202 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B6:E6"/>
+  <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2024,58 +2065,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="30">
         <v>1</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30">
         <v>2</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30">
         <v>3</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2090,30 +2131,30 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2128,26 +2169,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2162,26 +2203,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="31"/>
+      <c r="E5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="29"/>
       <c r="K5" s="2" t="s">
         <v>147</v>
       </c>
@@ -2196,9 +2237,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2236,9 +2277,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2276,9 +2317,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2316,24 +2357,24 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2371,13 +2412,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2415,13 +2456,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2495,16 +2536,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2518,7 +2559,7 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2546,7 +2587,7 @@
       <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2587,19 +2628,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2613,7 +2654,7 @@
       <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E2" t="s">
@@ -2630,7 +2671,7 @@
       <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E3" t="s">
@@ -2647,7 +2688,7 @@
       <c r="C4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E4" t="s">
@@ -2674,45 +2715,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2740,28 +2781,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2809,25 +2850,25 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="25" customWidth="1"/>
+    <col min="4" max="4" width="24" style="24" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2852,7 +2893,7 @@
       <c r="C3" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>169</v>
       </c>
       <c r="E3" t="s">
@@ -2860,7 +2901,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
